--- a/data/nomenclature_99_529.xlsx
+++ b/data/nomenclature_99_529.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\iyed\Projects\budgetDash\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E33D2BB0-F3DB-41F2-A646-CD036DC108F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F3C44-14D1-41E3-9979-22AEF6E79B4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parties" sheetId="1" r:id="rId1"/>
     <sheet name="articles" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -38,9 +38,6 @@
     <t>rang_partie</t>
   </si>
   <si>
-    <t>Titre 1</t>
-  </si>
-  <si>
     <t>dépenses de gestion</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>intérêts de la dette publique</t>
   </si>
   <si>
-    <t>Titre 2</t>
-  </si>
-  <si>
     <t>dépenses de développement</t>
   </si>
   <si>
@@ -156,12 +150,18 @@
   </si>
   <si>
     <t>subventions aux établissements publics non soumis au code de la comptabilité publique au titre des dépenses d'intervention</t>
+  </si>
+  <si>
+    <t>Titre 1: Dépenses de fonctionnement</t>
+  </si>
+  <si>
+    <t>Titre 2: Dépenses de développement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,23 +347,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="14"/>
-    <cellStyle name="Text" xfId="15"/>
-    <cellStyle name="Warning" xfId="16"/>
+    <cellStyle name="Status" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,14 +674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="49.8984375" customWidth="1"/>
     <col min="3" max="4" width="26.59765625" customWidth="1"/>
     <col min="5" max="5" width="10.69921875" customWidth="1"/>
@@ -706,16 +708,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -723,16 +725,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -740,16 +742,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -757,16 +759,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -774,16 +776,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -791,16 +793,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -808,16 +810,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -825,16 +827,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -842,16 +844,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -859,16 +861,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -876,16 +878,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -893,16 +895,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -918,10 +920,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -934,18 +936,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -956,7 +958,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -967,7 +969,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -978,7 +980,7 @@
     </row>
     <row r="5" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -989,7 +991,7 @@
     </row>
     <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1000,7 +1002,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1011,7 +1013,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1022,7 +1024,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1033,7 +1035,7 @@
     </row>
     <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1044,7 +1046,7 @@
     </row>
     <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1055,7 +1057,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1066,7 +1068,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1077,7 +1079,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="15" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="17" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1121,7 +1123,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1132,7 +1134,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1143,7 +1145,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1154,7 +1156,7 @@
     </row>
     <row r="21" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1165,7 +1167,7 @@
     </row>
     <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>3</v>
